--- a/biology/Médecine/Surinfection/Surinfection.xlsx
+++ b/biology/Médecine/Surinfection/Surinfection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La surinfection est une infection secondaire chez un individu affaibli par une première infection, dite « infection primaire », surajoutant ses conséquences à celles de la première infection.
 Elle caractérise parfois une infection se développant sur une blessure, une brûlure, un ulcère, un eczéma, une piqûre d'insecte, etc. L'agent infectieux peut être une microchampignon, une bactérie ou un virus.
@@ -514,7 +526,9 @@
           <t>Cas particulier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La surinfection peut être causée par un pathogène résistant aux antibiotiques.
 Lorsqu'elle survient en milieu hospitalier, on parle de maladie nosocomiale.
@@ -546,9 +560,11 @@
           <t>Surinfections et biofilms</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des biofilms anormalement pathogènes sur la peau ou les muqueuses sont impliqués dans une large gamme de maladies infectieuses : 65 % des infections recensées chez l'Homme dans les pays développés sont causées ou entretenues par des biofilms, et plus de 80 % des infections bactériennes chroniques le sont[1]. Il s'agit souvent de surinfections consécutives à une plaie ou une maladie virale (grippe par exemple).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des biofilms anormalement pathogènes sur la peau ou les muqueuses sont impliqués dans une large gamme de maladies infectieuses : 65 % des infections recensées chez l'Homme dans les pays développés sont causées ou entretenues par des biofilms, et plus de 80 % des infections bactériennes chroniques le sont. Il s'agit souvent de surinfections consécutives à une plaie ou une maladie virale (grippe par exemple).
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Diagnostic &amp; traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La surinfection peut compliquer le diagnostic et le traitement des deux maladies parce qu'un microbe ou un symptôme peut en cacher un autre ou parce que le traitement d'une maladie peut parfois favoriser la progression de l'autre ou que deux médicaments peuvent être incompatibles.
 Un microbe banal profitant de l'affaiblissement d'un organisme par une première infection peut alors le tuer.
